--- a/data/ViewFinders Production.xlsx
+++ b/data/ViewFinders Production.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="755">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2275,19 +2280,30 @@
   </si>
   <si>
     <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2298,7 +2314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2306,18 +2322,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2364,7 +2407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2396,9 +2439,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2430,6 +2474,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2605,14 +2650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2634,7 +2679,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2690,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2656,7 +2701,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2712,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2689,7 +2734,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2745,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2711,7 +2756,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2767,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2733,7 +2778,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2744,7 +2789,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2761,14 +2806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2784,8 +2831,14 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2801,8 +2854,14 @@
       <c r="E2">
         <v>17.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2818,8 +2877,14 @@
       <c r="E3">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2835,8 +2900,14 @@
       <c r="E4">
         <v>23.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>24.4769288</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2852,8 +2923,14 @@
       <c r="E5">
         <v>64.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>-10.3333333</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-53.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2869,8 +2946,14 @@
       <c r="E6">
         <v>24.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>51.1638175</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10.447831300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2886,8 +2969,14 @@
       <c r="E7">
         <v>87.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>46.603354000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.8883335000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2901,10 +2990,16 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>40.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-2.4833826000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>117.8902853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2920,8 +3015,14 @@
       <c r="E9">
         <v>25.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2937,8 +3038,14 @@
       <c r="E10">
         <v>37.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <v>7.5554942</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80.713784700000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2954,8 +3061,14 @@
       <c r="E11">
         <v>46.74</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2969,10 +3082,16 @@
         <v>99</v>
       </c>
       <c r="E12">
-        <v>16.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2988,8 +3107,14 @@
       <c r="E13">
         <v>78.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>12.750348600000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>122.7312101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3003,10 +3128,16 @@
         <v>18</v>
       </c>
       <c r="E14">
-        <v>32.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>30.3308401</v>
+      </c>
+      <c r="G14" s="1">
+        <v>71.247499000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3021,6 +3152,12 @@
       </c>
       <c r="E15">
         <v>15.64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25.624261799999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42.352832800000002</v>
       </c>
     </row>
   </sheetData>
@@ -3029,14 +3166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3058,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3069,7 +3206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3080,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3091,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -3102,7 +3239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3113,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3124,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3135,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3157,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3168,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3179,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3190,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3201,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3212,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3223,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3234,7 +3371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3245,7 +3382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3256,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3267,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3278,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3289,7 +3426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3300,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3311,7 +3448,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -3322,7 +3459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3333,7 +3470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3355,7 +3492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3366,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3377,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3388,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3399,7 +3536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -3410,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3421,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3432,7 +3569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3443,7 +3580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -3454,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3465,7 +3602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3476,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -3487,7 +3624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3498,7 +3635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3509,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3520,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -3531,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3542,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3553,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3564,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -3575,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3586,7 +3723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3608,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3619,7 +3756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -3630,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -3641,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -3652,7 +3789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -3663,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -3674,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3685,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -3707,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -3718,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -3729,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -3740,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -3751,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -3762,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -3773,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3784,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -3795,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -3806,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -3817,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -3828,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -3839,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -3850,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -3861,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -3872,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -3883,7 +4020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -3894,7 +4031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -3905,7 +4042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -3916,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -3927,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -3938,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -3949,7 +4086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -3960,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -3971,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -3982,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -3993,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4004,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>120</v>
       </c>
@@ -4015,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>121</v>
       </c>
@@ -4026,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -4037,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -4048,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -4059,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>125</v>
       </c>
@@ -4070,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -4081,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>127</v>
       </c>
@@ -4092,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>128</v>
       </c>
@@ -4103,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>129</v>
       </c>
@@ -4114,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>130</v>
       </c>
@@ -4125,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -4136,7 +4273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>132</v>
       </c>
@@ -4147,7 +4284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>133</v>
       </c>
@@ -4158,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>134</v>
       </c>
@@ -4169,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>135</v>
       </c>
@@ -4180,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -4191,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -4202,7 +4339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -4213,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>139</v>
       </c>
@@ -4224,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>140</v>
       </c>
@@ -4235,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -4246,7 +4383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -4257,7 +4394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -4268,7 +4405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -4279,7 +4416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -4290,7 +4427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -4301,7 +4438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -4312,7 +4449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -4323,7 +4460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -4334,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>150</v>
       </c>
@@ -4345,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -4356,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -4367,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>153</v>
       </c>
@@ -4378,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>154</v>
       </c>
@@ -4389,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -4400,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -4411,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>157</v>
       </c>
@@ -4422,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>158</v>
       </c>
@@ -4433,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>159</v>
       </c>
@@ -4444,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -4455,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -4466,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -4477,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>163</v>
       </c>
@@ -4488,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -4499,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -4510,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>166</v>
       </c>
@@ -4521,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -4532,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -4543,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>169</v>
       </c>
@@ -4554,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>170</v>
       </c>
@@ -4565,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>171</v>
       </c>
@@ -4576,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -4587,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -4598,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>174</v>
       </c>
@@ -4609,7 +4746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>175</v>
       </c>
@@ -4620,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>176</v>
       </c>
@@ -4631,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -4642,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -4653,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>179</v>
       </c>
@@ -4664,7 +4801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -4675,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -4686,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -4697,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>183</v>
       </c>
@@ -4708,7 +4845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -4719,7 +4856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>185</v>
       </c>
@@ -4730,7 +4867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>186</v>
       </c>
@@ -4741,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -4752,7 +4889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>188</v>
       </c>
@@ -4763,7 +4900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -4774,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>190</v>
       </c>
@@ -4785,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>191</v>
       </c>
@@ -4796,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>192</v>
       </c>
@@ -4807,7 +4944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>193</v>
       </c>
@@ -4818,7 +4955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>194</v>
       </c>
@@ -4829,7 +4966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>195</v>
       </c>
@@ -4840,7 +4977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>196</v>
       </c>
@@ -4851,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>197</v>
       </c>
@@ -4862,7 +4999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>198</v>
       </c>
@@ -4873,7 +5010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>199</v>
       </c>
@@ -4884,7 +5021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>200</v>
       </c>
@@ -4895,7 +5032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>201</v>
       </c>
@@ -4906,7 +5043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>202</v>
       </c>
@@ -4917,7 +5054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>203</v>
       </c>
@@ -4928,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>204</v>
       </c>
@@ -4939,7 +5076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>205</v>
       </c>
@@ -4950,7 +5087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>206</v>
       </c>
@@ -4961,7 +5098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>207</v>
       </c>
@@ -4972,7 +5109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>208</v>
       </c>
@@ -4983,7 +5120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -4994,7 +5131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>210</v>
       </c>
@@ -5005,7 +5142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>211</v>
       </c>
@@ -5016,7 +5153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>212</v>
       </c>
@@ -5027,7 +5164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>213</v>
       </c>
@@ -5038,7 +5175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>214</v>
       </c>
@@ -5049,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>215</v>
       </c>
@@ -5060,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>216</v>
       </c>
@@ -5071,7 +5208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>217</v>
       </c>
@@ -5082,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -5093,7 +5230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -5104,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -5115,7 +5252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -5126,7 +5263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>222</v>
       </c>
@@ -5137,7 +5274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>223</v>
       </c>
@@ -5148,7 +5285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>224</v>
       </c>
@@ -5159,7 +5296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>225</v>
       </c>
@@ -5170,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>226</v>
       </c>
@@ -5181,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>227</v>
       </c>
@@ -5192,7 +5329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -5203,7 +5340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -5214,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>230</v>
       </c>
@@ -5225,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>231</v>
       </c>
@@ -5236,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -5247,7 +5384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>233</v>
       </c>
@@ -5258,7 +5395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>234</v>
       </c>
@@ -5269,7 +5406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>235</v>
       </c>
@@ -5280,7 +5417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>236</v>
       </c>
@@ -5291,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>237</v>
       </c>
@@ -5302,7 +5439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>238</v>
       </c>
@@ -5313,7 +5450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -5324,7 +5461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>240</v>
       </c>
@@ -5335,7 +5472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>241</v>
       </c>
@@ -5346,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>242</v>
       </c>
@@ -5357,7 +5494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>243</v>
       </c>
@@ -5368,7 +5505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>244</v>
       </c>
@@ -5379,7 +5516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>245</v>
       </c>
@@ -5390,7 +5527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>246</v>
       </c>
@@ -5401,7 +5538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>247</v>
       </c>
@@ -5412,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>248</v>
       </c>
@@ -5423,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -5434,7 +5571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -5445,7 +5582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>251</v>
       </c>
@@ -5456,7 +5593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -5467,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -5478,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -5489,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -5500,7 +5637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>256</v>
       </c>
@@ -5511,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -5522,7 +5659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>258</v>
       </c>
@@ -5533,7 +5670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>259</v>
       </c>
@@ -5544,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>260</v>
       </c>
@@ -5555,7 +5692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>261</v>
       </c>
@@ -5566,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>262</v>
       </c>
@@ -5577,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>263</v>
       </c>
@@ -5588,7 +5725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -5599,7 +5736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>265</v>
       </c>
@@ -5610,7 +5747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>266</v>
       </c>
@@ -5621,7 +5758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>267</v>
       </c>
@@ -5632,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>268</v>
       </c>
@@ -5643,7 +5780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>269</v>
       </c>
@@ -5654,7 +5791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>270</v>
       </c>
@@ -5665,7 +5802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>271</v>
       </c>
@@ -5676,7 +5813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -5687,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>273</v>
       </c>
@@ -5698,7 +5835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>274</v>
       </c>
@@ -5709,7 +5846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>275</v>
       </c>
@@ -5720,7 +5857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>276</v>
       </c>
@@ -5731,7 +5868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>277</v>
       </c>
@@ -5742,7 +5879,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>278</v>
       </c>
@@ -5753,7 +5890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>279</v>
       </c>
@@ -5764,7 +5901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>280</v>
       </c>
@@ -5775,7 +5912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>281</v>
       </c>
@@ -5786,7 +5923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>282</v>
       </c>
@@ -5797,7 +5934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>283</v>
       </c>
@@ -5808,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>284</v>
       </c>
@@ -5819,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>285</v>
       </c>
@@ -5830,7 +5967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>286</v>
       </c>
@@ -5841,7 +5978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -5852,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>288</v>
       </c>
@@ -5863,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -5874,7 +6011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>290</v>
       </c>
@@ -5885,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>291</v>
       </c>
@@ -5896,7 +6033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>292</v>
       </c>
@@ -5907,7 +6044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -5918,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>294</v>
       </c>
@@ -5929,7 +6066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>295</v>
       </c>
@@ -5940,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -5951,7 +6088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>297</v>
       </c>
@@ -5962,7 +6099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>298</v>
       </c>
@@ -5973,7 +6110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>299</v>
       </c>
@@ -5984,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>300</v>
       </c>
@@ -5995,7 +6132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>301</v>
       </c>
@@ -6006,7 +6143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>302</v>
       </c>
@@ -6017,7 +6154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>303</v>
       </c>
@@ -6028,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>304</v>
       </c>
@@ -6039,7 +6176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>305</v>
       </c>
@@ -6050,7 +6187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>306</v>
       </c>
@@ -6061,7 +6198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>307</v>
       </c>
@@ -6072,7 +6209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>308</v>
       </c>
@@ -6083,7 +6220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>309</v>
       </c>
@@ -6094,7 +6231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>310</v>
       </c>
@@ -6105,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>311</v>
       </c>
@@ -6116,7 +6253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>312</v>
       </c>
@@ -6127,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>313</v>
       </c>
@@ -6138,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>314</v>
       </c>
@@ -6149,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>315</v>
       </c>
@@ -6160,7 +6297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>316</v>
       </c>
@@ -6171,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>317</v>
       </c>
@@ -6182,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>318</v>
       </c>
@@ -6193,7 +6330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>319</v>
       </c>
@@ -6204,7 +6341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>320</v>
       </c>
@@ -6215,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>321</v>
       </c>
@@ -6226,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>322</v>
       </c>
@@ -6237,7 +6374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>323</v>
       </c>
@@ -6248,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>324</v>
       </c>
@@ -6259,7 +6396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>325</v>
       </c>
@@ -6270,7 +6407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>326</v>
       </c>
@@ -6281,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>327</v>
       </c>
@@ -6292,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>328</v>
       </c>
@@ -6303,7 +6440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>329</v>
       </c>
@@ -6314,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>330</v>
       </c>
@@ -6325,7 +6462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>331</v>
       </c>
@@ -6336,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>332</v>
       </c>
@@ -6347,7 +6484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>333</v>
       </c>
@@ -6358,7 +6495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>334</v>
       </c>
@@ -6369,7 +6506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>335</v>
       </c>
@@ -6380,7 +6517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>336</v>
       </c>
@@ -6391,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>337</v>
       </c>
@@ -6402,7 +6539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>338</v>
       </c>
@@ -6413,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>339</v>
       </c>
@@ -6424,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>340</v>
       </c>
@@ -6435,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>341</v>
       </c>
@@ -6446,7 +6583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>342</v>
       </c>
@@ -6457,7 +6594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>343</v>
       </c>
@@ -6468,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>344</v>
       </c>
@@ -6479,7 +6616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>345</v>
       </c>
@@ -6490,7 +6627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>346</v>
       </c>
@@ -6501,7 +6638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>347</v>
       </c>
@@ -6512,7 +6649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>348</v>
       </c>
@@ -6523,7 +6660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>349</v>
       </c>
@@ -6534,7 +6671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>350</v>
       </c>
@@ -6545,7 +6682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>351</v>
       </c>
@@ -6556,7 +6693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>352</v>
       </c>
@@ -6567,7 +6704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>353</v>
       </c>
@@ -6578,7 +6715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>354</v>
       </c>
@@ -6589,7 +6726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>355</v>
       </c>
@@ -6600,7 +6737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>356</v>
       </c>
@@ -6611,7 +6748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>357</v>
       </c>
@@ -6622,7 +6759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>358</v>
       </c>
@@ -6633,7 +6770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>359</v>
       </c>
@@ -6644,7 +6781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>360</v>
       </c>
@@ -6655,7 +6792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>361</v>
       </c>
@@ -6666,7 +6803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>362</v>
       </c>
@@ -6677,7 +6814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>363</v>
       </c>
@@ -6688,7 +6825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>364</v>
       </c>
@@ -6699,7 +6836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>365</v>
       </c>
@@ -6710,7 +6847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>366</v>
       </c>
@@ -6721,7 +6858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>367</v>
       </c>
@@ -6732,7 +6869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>368</v>
       </c>
@@ -6743,7 +6880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>369</v>
       </c>
@@ -6754,7 +6891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>370</v>
       </c>
@@ -6765,7 +6902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>371</v>
       </c>
@@ -6776,7 +6913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>372</v>
       </c>
@@ -6787,7 +6924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>373</v>
       </c>
@@ -6798,7 +6935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>374</v>
       </c>
@@ -6809,7 +6946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>375</v>
       </c>
@@ -6820,7 +6957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>376</v>
       </c>
@@ -6831,7 +6968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>377</v>
       </c>
@@ -6842,7 +6979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>378</v>
       </c>
@@ -6853,7 +6990,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>379</v>
       </c>
@@ -6864,7 +7001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>380</v>
       </c>
@@ -6875,7 +7012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>381</v>
       </c>
@@ -6886,7 +7023,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>382</v>
       </c>
@@ -6897,7 +7034,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>383</v>
       </c>
@@ -6908,7 +7045,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>384</v>
       </c>
@@ -6919,7 +7056,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>385</v>
       </c>
@@ -6930,7 +7067,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>386</v>
       </c>
@@ -6941,7 +7078,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>387</v>
       </c>
@@ -6952,7 +7089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>388</v>
       </c>
@@ -6963,7 +7100,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>389</v>
       </c>
@@ -6974,7 +7111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>390</v>
       </c>
@@ -6985,7 +7122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>391</v>
       </c>
@@ -6996,7 +7133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>392</v>
       </c>
@@ -7007,7 +7144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>393</v>
       </c>
@@ -7018,7 +7155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>394</v>
       </c>
@@ -7029,7 +7166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>395</v>
       </c>
@@ -7040,7 +7177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>396</v>
       </c>
@@ -7051,7 +7188,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>397</v>
       </c>
@@ -7062,7 +7199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>398</v>
       </c>
@@ -7073,7 +7210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>399</v>
       </c>
@@ -7084,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>400</v>
       </c>
@@ -7095,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>401</v>
       </c>
@@ -7106,7 +7243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>402</v>
       </c>
@@ -7117,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>403</v>
       </c>
@@ -7128,7 +7265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>404</v>
       </c>
@@ -7139,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>405</v>
       </c>
@@ -7150,7 +7287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>406</v>
       </c>
@@ -7161,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>407</v>
       </c>
@@ -7172,7 +7309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>408</v>
       </c>
@@ -7183,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>409</v>
       </c>
@@ -7194,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>410</v>
       </c>
@@ -7205,7 +7342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>411</v>
       </c>
@@ -7216,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -7227,7 +7364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -7238,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -7249,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -7260,7 +7397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -7271,7 +7408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -7282,7 +7419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -7293,7 +7430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -7304,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -7315,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -7326,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -7337,7 +7474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -7348,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -7359,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -7370,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -7381,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -7392,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -7403,7 +7540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -7414,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -7425,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -7436,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -7447,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -7458,7 +7595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -7469,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -7480,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>436</v>
       </c>
@@ -7491,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>437</v>
       </c>
@@ -7502,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>438</v>
       </c>
@@ -7513,7 +7650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>439</v>
       </c>
@@ -7524,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>440</v>
       </c>
@@ -7535,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>441</v>
       </c>
@@ -7546,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>442</v>
       </c>
@@ -7557,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>443</v>
       </c>
@@ -7568,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>444</v>
       </c>
@@ -7579,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>445</v>
       </c>
@@ -7590,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>446</v>
       </c>
@@ -7601,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>447</v>
       </c>
@@ -7612,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>448</v>
       </c>
@@ -7623,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>449</v>
       </c>
@@ -7634,7 +7771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>450</v>
       </c>
@@ -7645,7 +7782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>451</v>
       </c>
@@ -7656,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>452</v>
       </c>
@@ -7667,7 +7804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>453</v>
       </c>
@@ -7678,7 +7815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>454</v>
       </c>
@@ -7689,7 +7826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>455</v>
       </c>
@@ -7700,7 +7837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>456</v>
       </c>
@@ -7711,7 +7848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>457</v>
       </c>
@@ -7722,7 +7859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>458</v>
       </c>
@@ -7733,7 +7870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>459</v>
       </c>
@@ -7744,7 +7881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>460</v>
       </c>
@@ -7755,7 +7892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>461</v>
       </c>
@@ -7766,7 +7903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>462</v>
       </c>
@@ -7777,7 +7914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>463</v>
       </c>
@@ -7788,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>464</v>
       </c>
@@ -7799,7 +7936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>465</v>
       </c>
@@ -7810,7 +7947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>466</v>
       </c>
@@ -7821,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>467</v>
       </c>
@@ -7832,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>468</v>
       </c>
@@ -7843,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>469</v>
       </c>
@@ -7854,7 +7991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>470</v>
       </c>
@@ -7865,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>471</v>
       </c>
@@ -7876,7 +8013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>472</v>
       </c>
@@ -7887,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>473</v>
       </c>
@@ -7898,7 +8035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>474</v>
       </c>
@@ -7909,7 +8046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>475</v>
       </c>
@@ -7920,7 +8057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>476</v>
       </c>
@@ -7931,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>477</v>
       </c>
@@ -7942,7 +8079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>478</v>
       </c>
@@ -7953,7 +8090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>479</v>
       </c>
@@ -7964,7 +8101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>480</v>
       </c>
@@ -7975,7 +8112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>481</v>
       </c>
@@ -7986,7 +8123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>482</v>
       </c>
@@ -7997,7 +8134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>483</v>
       </c>
@@ -8008,7 +8145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>484</v>
       </c>
@@ -8019,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>485</v>
       </c>
@@ -8030,7 +8167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>486</v>
       </c>
@@ -8041,7 +8178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>487</v>
       </c>
@@ -8052,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>488</v>
       </c>
@@ -8063,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>489</v>
       </c>
@@ -8074,7 +8211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>490</v>
       </c>
@@ -8085,7 +8222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>491</v>
       </c>
@@ -8096,7 +8233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>492</v>
       </c>
@@ -8107,7 +8244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>493</v>
       </c>
@@ -8118,7 +8255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>494</v>
       </c>
@@ -8129,7 +8266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>495</v>
       </c>
@@ -8140,7 +8277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>496</v>
       </c>
@@ -8151,7 +8288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>497</v>
       </c>
@@ -8162,7 +8299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>498</v>
       </c>
@@ -8173,7 +8310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>499</v>
       </c>
@@ -8184,7 +8321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>500</v>
       </c>
@@ -8195,7 +8332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>501</v>
       </c>
@@ -8206,7 +8343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>502</v>
       </c>
@@ -8217,7 +8354,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>503</v>
       </c>
@@ -8228,7 +8365,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>504</v>
       </c>
@@ -8239,7 +8376,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>505</v>
       </c>
@@ -8250,7 +8387,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>506</v>
       </c>
@@ -8261,7 +8398,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>507</v>
       </c>
@@ -8272,7 +8409,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>508</v>
       </c>
@@ -8283,7 +8420,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>509</v>
       </c>
@@ -8294,7 +8431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>510</v>
       </c>
@@ -8305,7 +8442,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>511</v>
       </c>
@@ -8316,7 +8453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>512</v>
       </c>
@@ -8327,7 +8464,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>513</v>
       </c>
@@ -8338,7 +8475,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>514</v>
       </c>
@@ -8349,7 +8486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>515</v>
       </c>
@@ -8360,7 +8497,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>516</v>
       </c>
@@ -8371,7 +8508,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>517</v>
       </c>
@@ -8382,7 +8519,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>518</v>
       </c>
@@ -8393,7 +8530,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>519</v>
       </c>
@@ -8404,7 +8541,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>520</v>
       </c>
@@ -8415,7 +8552,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>521</v>
       </c>
@@ -8426,7 +8563,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>522</v>
       </c>
@@ -8437,7 +8574,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>523</v>
       </c>
@@ -8448,7 +8585,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>524</v>
       </c>
@@ -8459,7 +8596,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>525</v>
       </c>
@@ -8470,7 +8607,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>526</v>
       </c>
@@ -8481,7 +8618,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>527</v>
       </c>
@@ -8492,7 +8629,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>528</v>
       </c>
@@ -8503,7 +8640,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>529</v>
       </c>
@@ -8514,7 +8651,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>530</v>
       </c>
@@ -8525,7 +8662,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>531</v>
       </c>
@@ -8536,7 +8673,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>532</v>
       </c>
@@ -8547,7 +8684,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>533</v>
       </c>
@@ -8558,7 +8695,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>534</v>
       </c>
@@ -8569,7 +8706,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>535</v>
       </c>
@@ -8580,7 +8717,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>536</v>
       </c>
@@ -8591,7 +8728,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>537</v>
       </c>
@@ -8602,7 +8739,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>538</v>
       </c>
@@ -8613,7 +8750,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>539</v>
       </c>
@@ -8624,7 +8761,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>540</v>
       </c>
@@ -8635,7 +8772,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>541</v>
       </c>
@@ -8646,7 +8783,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>542</v>
       </c>
@@ -8657,7 +8794,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>543</v>
       </c>
@@ -8668,7 +8805,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>544</v>
       </c>
@@ -8679,7 +8816,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>545</v>
       </c>
@@ -8690,7 +8827,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>546</v>
       </c>
@@ -8701,7 +8838,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>547</v>
       </c>
@@ -8712,7 +8849,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>548</v>
       </c>
@@ -8723,7 +8860,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>549</v>
       </c>
@@ -8734,7 +8871,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>550</v>
       </c>
@@ -8745,7 +8882,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>551</v>
       </c>
@@ -8756,7 +8893,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>552</v>
       </c>
@@ -8767,7 +8904,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>553</v>
       </c>
@@ -8778,7 +8915,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>554</v>
       </c>
@@ -8789,7 +8926,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>555</v>
       </c>
@@ -8800,7 +8937,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>556</v>
       </c>
@@ -8811,7 +8948,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>557</v>
       </c>
@@ -8822,7 +8959,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>558</v>
       </c>
@@ -8833,7 +8970,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>559</v>
       </c>
@@ -8844,7 +8981,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>560</v>
       </c>
@@ -8855,7 +8992,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>561</v>
       </c>
@@ -8866,7 +9003,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>562</v>
       </c>
@@ -8877,7 +9014,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>563</v>
       </c>
@@ -8888,7 +9025,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>564</v>
       </c>
@@ -8899,7 +9036,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>565</v>
       </c>
@@ -8910,7 +9047,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>566</v>
       </c>
@@ -8921,7 +9058,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>567</v>
       </c>
@@ -8932,7 +9069,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>568</v>
       </c>
@@ -8943,7 +9080,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>569</v>
       </c>
@@ -8954,7 +9091,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>570</v>
       </c>
@@ -8965,7 +9102,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>571</v>
       </c>
@@ -8976,7 +9113,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>572</v>
       </c>
@@ -8987,7 +9124,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>573</v>
       </c>
@@ -8998,7 +9135,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>574</v>
       </c>
@@ -9009,7 +9146,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>575</v>
       </c>
@@ -9020,7 +9157,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>576</v>
       </c>
@@ -9031,7 +9168,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>577</v>
       </c>
@@ -9042,7 +9179,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>578</v>
       </c>
@@ -9053,7 +9190,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>579</v>
       </c>
@@ -9064,7 +9201,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>580</v>
       </c>
@@ -9075,7 +9212,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>581</v>
       </c>
@@ -9086,7 +9223,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>582</v>
       </c>
@@ -9097,7 +9234,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>583</v>
       </c>
@@ -9108,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>584</v>
       </c>
@@ -9119,7 +9256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>585</v>
       </c>
@@ -9130,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>586</v>
       </c>
@@ -9141,7 +9278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>587</v>
       </c>
@@ -9152,7 +9289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>588</v>
       </c>
@@ -9163,7 +9300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>589</v>
       </c>
@@ -9174,7 +9311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>590</v>
       </c>
@@ -9185,7 +9322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>591</v>
       </c>
@@ -9196,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>592</v>
       </c>
@@ -9207,7 +9344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>593</v>
       </c>
@@ -9218,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>594</v>
       </c>
@@ -9229,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>595</v>
       </c>
@@ -9240,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>596</v>
       </c>
@@ -9251,7 +9388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>597</v>
       </c>
@@ -9262,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>598</v>
       </c>
@@ -9273,7 +9410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>599</v>
       </c>
@@ -9284,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>600</v>
       </c>
@@ -9295,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>601</v>
       </c>
@@ -9306,7 +9443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>602</v>
       </c>
@@ -9317,7 +9454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>603</v>
       </c>
@@ -9328,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>604</v>
       </c>
@@ -9339,7 +9476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>605</v>
       </c>
@@ -9350,7 +9487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>606</v>
       </c>
@@ -9361,7 +9498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>607</v>
       </c>
@@ -9372,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>608</v>
       </c>
@@ -9383,7 +9520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>609</v>
       </c>
@@ -9394,7 +9531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>610</v>
       </c>
@@ -9405,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>611</v>
       </c>
@@ -9416,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>612</v>
       </c>
@@ -9427,7 +9564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>613</v>
       </c>
@@ -9438,7 +9575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>614</v>
       </c>
@@ -9449,7 +9586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>615</v>
       </c>
@@ -9460,7 +9597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>616</v>
       </c>
@@ -9471,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>617</v>
       </c>
@@ -9482,7 +9619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>618</v>
       </c>
@@ -9493,7 +9630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>619</v>
       </c>
@@ -9504,7 +9641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>620</v>
       </c>
@@ -9515,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>621</v>
       </c>
@@ -9526,7 +9663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>622</v>
       </c>
@@ -9537,7 +9674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>623</v>
       </c>
@@ -9548,7 +9685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>624</v>
       </c>
@@ -9559,7 +9696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>625</v>
       </c>
@@ -9570,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>626</v>
       </c>
@@ -9581,7 +9718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>627</v>
       </c>
@@ -9592,7 +9729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>628</v>
       </c>
@@ -9603,7 +9740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>629</v>
       </c>
@@ -9614,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>630</v>
       </c>
@@ -9625,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>631</v>
       </c>
@@ -9636,7 +9773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>632</v>
       </c>
@@ -9647,7 +9784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>633</v>
       </c>
@@ -9658,7 +9795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>634</v>
       </c>
@@ -9669,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>635</v>
       </c>
@@ -9680,7 +9817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>636</v>
       </c>
@@ -9691,7 +9828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>637</v>
       </c>
@@ -9702,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>638</v>
       </c>
@@ -9713,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>639</v>
       </c>
@@ -9724,7 +9861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>640</v>
       </c>
@@ -9735,7 +9872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>641</v>
       </c>
@@ -9746,7 +9883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>642</v>
       </c>
@@ -9757,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>643</v>
       </c>
@@ -9768,7 +9905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>644</v>
       </c>
@@ -9779,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>645</v>
       </c>
@@ -9790,7 +9927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>646</v>
       </c>
@@ -9801,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>647</v>
       </c>
@@ -9812,7 +9949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>648</v>
       </c>
@@ -9823,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>649</v>
       </c>
@@ -9834,7 +9971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>650</v>
       </c>
@@ -9845,7 +9982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>651</v>
       </c>
@@ -9856,7 +9993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>652</v>
       </c>
@@ -9867,7 +10004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>653</v>
       </c>
@@ -9878,7 +10015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>654</v>
       </c>
@@ -9889,7 +10026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>655</v>
       </c>
@@ -9900,7 +10037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>656</v>
       </c>
@@ -9911,7 +10048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>657</v>
       </c>
@@ -9922,7 +10059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>658</v>
       </c>
@@ -9933,7 +10070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>659</v>
       </c>
@@ -9944,7 +10081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>660</v>
       </c>
@@ -9955,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>661</v>
       </c>
@@ -9966,7 +10103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>662</v>
       </c>
@@ -9977,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>663</v>
       </c>
@@ -9988,7 +10125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>664</v>
       </c>
@@ -9999,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>665</v>
       </c>
@@ -10010,7 +10147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>666</v>
       </c>
@@ -10021,7 +10158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>667</v>
       </c>
@@ -10032,7 +10169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>668</v>
       </c>
@@ -10043,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>669</v>
       </c>
@@ -10054,7 +10191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>670</v>
       </c>
@@ -10065,7 +10202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>671</v>
       </c>
@@ -10076,7 +10213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>672</v>
       </c>
@@ -10087,7 +10224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>673</v>
       </c>
@@ -10098,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>674</v>
       </c>
@@ -10109,7 +10246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>675</v>
       </c>
@@ -10120,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>676</v>
       </c>
@@ -10131,7 +10268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>677</v>
       </c>
@@ -10142,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>678</v>
       </c>
@@ -10153,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>679</v>
       </c>
@@ -10164,7 +10301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>680</v>
       </c>
@@ -10175,7 +10312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>681</v>
       </c>
@@ -10186,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>682</v>
       </c>
@@ -10197,7 +10334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>683</v>
       </c>
@@ -10208,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>684</v>
       </c>
@@ -10219,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>685</v>
       </c>
@@ -10230,7 +10367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>686</v>
       </c>
@@ -10241,7 +10378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>687</v>
       </c>
@@ -10252,7 +10389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>688</v>
       </c>
@@ -10263,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>689</v>
       </c>
@@ -10274,7 +10411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>690</v>
       </c>
@@ -10285,7 +10422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>691</v>
       </c>
@@ -10296,7 +10433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>692</v>
       </c>
@@ -10307,7 +10444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>693</v>
       </c>
@@ -10318,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>694</v>
       </c>
@@ -10329,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>695</v>
       </c>
@@ -10340,7 +10477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>696</v>
       </c>
@@ -10351,7 +10488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>697</v>
       </c>
@@ -10362,7 +10499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>698</v>
       </c>
@@ -10373,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>699</v>
       </c>
@@ -10384,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>700</v>
       </c>
@@ -10395,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>701</v>
       </c>
@@ -10406,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>702</v>
       </c>
@@ -10417,7 +10554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>703</v>
       </c>
@@ -10428,7 +10565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>704</v>
       </c>
@@ -10439,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>705</v>
       </c>
@@ -10450,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>706</v>
       </c>
@@ -10461,7 +10598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>707</v>
       </c>
@@ -10472,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>708</v>
       </c>
@@ -10483,7 +10620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>709</v>
       </c>
@@ -10494,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>710</v>
       </c>
@@ -10505,7 +10642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>711</v>
       </c>
@@ -10516,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>712</v>
       </c>
@@ -10527,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>713</v>
       </c>
@@ -10538,7 +10675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>714</v>
       </c>
@@ -10549,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>715</v>
       </c>
@@ -10560,7 +10697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>716</v>
       </c>
@@ -10571,7 +10708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>717</v>
       </c>
@@ -10582,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>718</v>
       </c>
@@ -10593,7 +10730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>719</v>
       </c>
@@ -10604,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>720</v>
       </c>
@@ -10615,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>721</v>
       </c>
@@ -10626,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>722</v>
       </c>
@@ -10637,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>723</v>
       </c>
@@ -10648,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>724</v>
       </c>
@@ -10659,7 +10796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>725</v>
       </c>
@@ -10670,7 +10807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>726</v>
       </c>
@@ -10681,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>727</v>
       </c>
@@ -10692,7 +10829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>728</v>
       </c>
@@ -10703,7 +10840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>729</v>
       </c>
@@ -10714,7 +10851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>730</v>
       </c>
@@ -10725,7 +10862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>731</v>
       </c>
@@ -10736,7 +10873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>732</v>
       </c>
@@ -10747,7 +10884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>733</v>
       </c>
@@ -10758,7 +10895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>734</v>
       </c>
@@ -10769,7 +10906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>735</v>
       </c>
@@ -10780,7 +10917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>736</v>
       </c>
@@ -10791,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>737</v>
       </c>
@@ -10802,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>738</v>
       </c>
@@ -10813,7 +10950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>739</v>
       </c>
@@ -10824,7 +10961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>740</v>
       </c>
@@ -10835,7 +10972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>741</v>
       </c>
@@ -10846,7 +10983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>742</v>
       </c>
@@ -10857,7 +10994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>743</v>
       </c>
@@ -10868,7 +11005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>744</v>
       </c>
@@ -10879,7 +11016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>745</v>
       </c>
@@ -10890,7 +11027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>746</v>
       </c>
@@ -10901,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>747</v>
       </c>
@@ -10912,7 +11049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>748</v>
       </c>
@@ -10923,7 +11060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>749</v>
       </c>
@@ -10934,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>750</v>
       </c>
@@ -10945,7 +11082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>751</v>
       </c>
@@ -10956,7 +11093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>752</v>
       </c>
